--- a/data/San Ignacio.xlsx
+++ b/data/San Ignacio.xlsx
@@ -535,7 +535,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Solek Chile Holding SpA</t>
+          <t>Parque Solar El Trigal SpA</t>
         </is>
       </c>
       <c r="F4" t="n">

--- a/data/San Ignacio.xlsx
+++ b/data/San Ignacio.xlsx
@@ -631,7 +631,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Solek Chile Services SpA</t>
+          <t>Parque Solar Pueblo Seco SpA</t>
         </is>
       </c>
       <c r="F6" t="n">

--- a/data/San Ignacio.xlsx
+++ b/data/San Ignacio.xlsx
@@ -439,7 +439,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -487,7 +487,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -679,7 +679,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">

--- a/data/San Ignacio.xlsx
+++ b/data/San Ignacio.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Línea de Transmisión 1x66 kV Montenegro - Lucero</t>
+          <t>Santa Graciela Solar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Doña Graciela Solar SPA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>6197</v>
+        <v>93000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/07/2021</t>
+          <t>18/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152658541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157323200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>15/07/2021</t>
+          <t>22/07/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152658319&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152658541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Trigal</t>
+          <t>Línea de Transmisión 1x66 kV Montenegro - Lucero</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Parque Solar El Trigal SpA</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>10000</v>
+        <v>6197</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>22/04/2021</t>
+          <t>15/07/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152658319&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Solek Chile Holding SpA</t>
+          <t>Parque Solar El Trigal SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -591,17 +591,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>24/03/2021</t>
+          <t>22/04/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151184236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Pueblo Seco</t>
+          <t>Parque Fotovoltaico El Trigal</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Parque Solar Pueblo Seco SpA</t>
+          <t>Solek Chile Holding SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -639,17 +639,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>22/03/2021</t>
+          <t>24/03/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151170751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151184236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Subestación seccionadora Montenegro 220-154/66/13,2 kV</t>
+          <t>Parque Fotovoltaico Pueblo Seco</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Parque Solar Pueblo Seco SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>10886</v>
+        <v>10000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>19/02/2021</t>
+          <t>22/03/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150834514&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151170751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Proyecto Mejoramiento de la Planta de Tratamiento de Aguas Servidas de la Localidad de San Ignacio</t>
+          <t>Subestación seccionadora Montenegro 220-154/66/13,2 kV</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1568</v>
+        <v>10886</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>19/02/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128962327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150834514&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Proyecto Mejoramiento de la Planta de Tratamiento de Aguas Servidas de la Localidad de San Ignacio</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,30 +770,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>250</v>
+        <v>1568</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128962327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -831,17 +831,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -923,11 +923,11 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR DE SAN IGNACIO</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,30 +1010,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Ignacio</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR SAN IGNACIO (e-seia)</t>
+          <t>PLAN REGULADOR DE SAN IGNACIO</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>28/10/2009</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4144095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL DE SAN IGNACIO (e-seia)</t>
+          <t>PLAN REGULADOR SAN IGNACIO (e-seia)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>22/10/2009</t>
+          <t>28/10/2009</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4075260&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4144095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>PLAN REGULADOR COMUNAL DE SAN IGNACIO (e-seia)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,30 +1154,30 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Ilustre Municipalidad de San Ignacio</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>22/10/2009</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4075260&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Plan de Cierre del Vertedero Municipal de San ignacio (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,30 +1202,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Ignacio</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Plan de Cierre del Vertedero Municipal de San ignacio (e-seia)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,30 +1250,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Ilustre Municipalidad de San Ignacio</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>234</v>
+        <v>100</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Traslado y disposición de camas de aserrin (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,30 +1298,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Faenadora de Carnes Ñuble S.A.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>27</v>
+        <v>234</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>13/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2387097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Traslado y disposición de camas de aserrin (e-seia)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Faenadora de Carnes Ñuble S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>13/09/2007</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2387097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Traslado y disposición camas de aserrin Carnes Ñuble S.A (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,20 +1442,20 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Gonzalo Rodrigo Galaz Latorre</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>24</v>
+        <v>300</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>14/03/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2035641&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>Traslado y disposición camas de aserrin Carnes Ñuble S.A (e-seia)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>Gonzalo Rodrigo Galaz Latorre</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>14/03/2007</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2035641&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1791,17 +1791,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,12 +1864,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 1x220 kV S/E Charrúa-Chillán</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>05/03/2004</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 1x220 kV S/E Charrúa - Chillán</t>
+          <t>Línea de Transmisión Eléctrica 1x220 kV S/E Charrúa-Chillán</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>20/02/2004</t>
+          <t>05/03/2004</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,12 +1960,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Uso benéfico de lodos provenientes de Plantas de Tratamiento de Aguas Servidas de Essbío S.A.</t>
+          <t>Línea de Transmisión Eléctrica 1x220 kV S/E Charrúa - Chillán</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>9200</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>05/04/2002</t>
+          <t>20/02/2004</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5292&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Construcción Local Adicional y Ampliación Liceo C-81 Pueblo Seco</t>
+          <t>Uso benéfico de lodos provenientes de Plantas de Tratamiento de Aguas Servidas de Essbío S.A.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,20 +2018,20 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Ignacio</t>
+          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>940</v>
+        <v>0</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>26/03/2002</t>
+          <t>05/04/2002</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5255&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5292&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,12 +2056,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Embalse Diguillín</t>
+          <t>Construcción Local Adicional y Ampliación Liceo C-81 Pueblo Seco</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Ilustre Municipalidad de San Ignacio</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>30350</v>
+        <v>940</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>20/02/2002</t>
+          <t>26/03/2002</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5128&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5255&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,12 +2104,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Instalación Servicio de Agua Potable Rural Localidad Las Quilas Comuna de San Ignacio</t>
+          <t>Embalse Diguillín</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2123,21 +2123,21 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>370</v>
+        <v>30350</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>31/08/2000</t>
+          <t>20/02/2002</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3140&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5128&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas de San Ignacio</t>
+          <t>Instalación Servicio de Agua Potable Rural Localidad Las Quilas Comuna de San Ignacio</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>830</v>
+        <v>370</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>22/01/1999</t>
+          <t>31/08/2000</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1647&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3140&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento y Red de Aguas Servidas de Pueblo Seco</t>
+          <t>Planta de Tratamiento de Aguas Servidas de San Ignacio</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Ignacio</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>880</v>
+        <v>830</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>19/12/1997</t>
+          <t>22/01/1999</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1647&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,43 +2248,91 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>Planta de Tratamiento y Red de Aguas Servidas de Pueblo Seco</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Décimosexta</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>I. Municipalidad de San Ignacio</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>880</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>19/12/1997</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=749&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>San Ignacio</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
           <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>Interregional</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
-      <c r="F40" t="n">
+      <c r="F41" t="n">
         <v>850000</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>31/01/1996</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>San Ignacio</t>
         </is>

--- a/data/San Ignacio.xlsx
+++ b/data/San Ignacio.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/10/2022</t>
+          <t>20/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/San Ignacio.xlsx
+++ b/data/San Ignacio.xlsx
@@ -1927,7 +1927,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -1975,7 +1975,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F34" t="n">

--- a/data/San Ignacio.xlsx
+++ b/data/San Ignacio.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/San Ignacio.xlsx
+++ b/data/San Ignacio.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -535,7 +535,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -727,7 +727,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F8" t="n">

--- a/data/San Ignacio.xlsx
+++ b/data/San Ignacio.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/San Ignacio.xlsx
+++ b/data/San Ignacio.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -535,7 +535,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -727,7 +727,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">

--- a/data/San Ignacio.xlsx
+++ b/data/San Ignacio.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Santa Graciela Solar</t>
+          <t>La Mocha Solar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Doña Graciela Solar SPA</t>
+          <t>LA MOCHA SOLAR SPA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>93000</v>
+        <v>160000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/10/2022</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157323200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159646462&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Línea de Transmisión 1x66 kV Montenegro - Lucero</t>
+          <t>Santa Graciela Solar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Doña Graciela Solar SPA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>6197</v>
+        <v>93000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>22/07/2021</t>
+          <t>20/10/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152658541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157323200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>15/07/2021</t>
+          <t>22/07/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152658319&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152658541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Trigal</t>
+          <t>Línea de Transmisión 1x66 kV Montenegro - Lucero</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Parque Solar El Trigal SpA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>10000</v>
+        <v>6197</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>22/04/2021</t>
+          <t>15/07/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152658319&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Solek Chile Holding SpA</t>
+          <t>Parque Solar El Trigal SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -639,17 +639,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>24/03/2021</t>
+          <t>22/04/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151184236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151487825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Pueblo Seco</t>
+          <t>Parque Fotovoltaico El Trigal</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Parque Solar Pueblo Seco SpA</t>
+          <t>Solek Chile Holding SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -687,17 +687,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>22/03/2021</t>
+          <t>24/03/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151170751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151184236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Subestación seccionadora Montenegro 220-154/66/13,2 kV</t>
+          <t>Parque Fotovoltaico Pueblo Seco</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Parque Solar Pueblo Seco SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>10886</v>
+        <v>10000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>19/02/2021</t>
+          <t>22/03/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150834514&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151170751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Proyecto Mejoramiento de la Planta de Tratamiento de Aguas Servidas de la Localidad de San Ignacio</t>
+          <t>Subestación seccionadora Montenegro 220-154/66/13,2 kV</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1568</v>
+        <v>10886</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>19/02/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128962327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150834514&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Proyecto Mejoramiento de la Planta de Tratamiento de Aguas Servidas de la Localidad de San Ignacio</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,30 +818,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>250</v>
+        <v>1568</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128962327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -927,7 +927,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -971,11 +971,11 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR DE SAN IGNACIO</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,30 +1058,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Ignacio</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR SAN IGNACIO (e-seia)</t>
+          <t>PLAN REGULADOR DE SAN IGNACIO</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1119,17 +1119,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>28/10/2009</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4144095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL DE SAN IGNACIO (e-seia)</t>
+          <t>PLAN REGULADOR SAN IGNACIO (e-seia)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>22/10/2009</t>
+          <t>28/10/2009</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4075260&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4144095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>PLAN REGULADOR COMUNAL DE SAN IGNACIO (e-seia)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,30 +1202,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Ilustre Municipalidad de San Ignacio</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>22/10/2009</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4075260&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Plan de Cierre del Vertedero Municipal de San ignacio (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,30 +1250,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Ignacio</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Plan de Cierre del Vertedero Municipal de San ignacio (e-seia)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,30 +1298,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Ilustre Municipalidad de San Ignacio</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>234</v>
+        <v>100</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Traslado y disposición de camas de aserrin (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Faenadora de Carnes Ñuble S.A.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>27</v>
+        <v>234</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>13/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2387097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Traslado y disposición de camas de aserrin (e-seia)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Faenadora de Carnes Ñuble S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>13/09/2007</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2387097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Traslado y disposición camas de aserrin Carnes Ñuble S.A (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,20 +1490,20 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Gonzalo Rodrigo Galaz Latorre</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>24</v>
+        <v>300</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>14/03/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2035641&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>Traslado y disposición camas de aserrin Carnes Ñuble S.A (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,30 +1538,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>Gonzalo Rodrigo Galaz Latorre</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>14/03/2007</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2035641&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1647,17 +1647,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1839,17 +1839,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,12 +1912,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 1x220 kV S/E Charrúa-Chillán</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>05/03/2004</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 1x220 kV S/E Charrúa - Chillán</t>
+          <t>Línea de Transmisión Eléctrica 1x220 kV S/E Charrúa-Chillán</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1983,17 +1983,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>20/02/2004</t>
+          <t>05/03/2004</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,12 +2008,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Uso benéfico de lodos provenientes de Plantas de Tratamiento de Aguas Servidas de Essbío S.A.</t>
+          <t>Línea de Transmisión Eléctrica 1x220 kV S/E Charrúa - Chillán</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>9200</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>05/04/2002</t>
+          <t>20/02/2004</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5292&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Construcción Local Adicional y Ampliación Liceo C-81 Pueblo Seco</t>
+          <t>Uso benéfico de lodos provenientes de Plantas de Tratamiento de Aguas Servidas de Essbío S.A.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,20 +2066,20 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Ignacio</t>
+          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>940</v>
+        <v>0</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>26/03/2002</t>
+          <t>05/04/2002</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5255&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5292&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,12 +2104,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Embalse Diguillín</t>
+          <t>Construcción Local Adicional y Ampliación Liceo C-81 Pueblo Seco</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Ilustre Municipalidad de San Ignacio</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>30350</v>
+        <v>940</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>20/02/2002</t>
+          <t>26/03/2002</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5128&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5255&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,12 +2152,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Instalación Servicio de Agua Potable Rural Localidad Las Quilas Comuna de San Ignacio</t>
+          <t>Embalse Diguillín</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2171,21 +2171,21 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>370</v>
+        <v>30350</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>31/08/2000</t>
+          <t>20/02/2002</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3140&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5128&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas de San Ignacio</t>
+          <t>Instalación Servicio de Agua Potable Rural Localidad Las Quilas Comuna de San Ignacio</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>830</v>
+        <v>370</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>22/01/1999</t>
+          <t>31/08/2000</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1647&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3140&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento y Red de Aguas Servidas de Pueblo Seco</t>
+          <t>Planta de Tratamiento de Aguas Servidas de San Ignacio</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Ignacio</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>880</v>
+        <v>830</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>19/12/1997</t>
+          <t>22/01/1999</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1647&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,43 +2296,91 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>Planta de Tratamiento y Red de Aguas Servidas de Pueblo Seco</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Décimosexta</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>I. Municipalidad de San Ignacio</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>880</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>19/12/1997</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=749&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>San Ignacio</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
           <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>Interregional</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
-      <c r="F41" t="n">
+      <c r="F42" t="n">
         <v>850000</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>31/01/1996</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>San Ignacio</t>
         </is>

--- a/data/San Ignacio.xlsx
+++ b/data/San Ignacio.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>23/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/San Ignacio.xlsx
+++ b/data/San Ignacio.xlsx
@@ -1975,7 +1975,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F35" t="n">
